--- a/Table/Table_xls/b宝箱奖励.xlsx
+++ b/Table/Table_xls/b宝箱奖励.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28620" windowHeight="12615"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -26,9 +26,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -42,9 +40,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -58,9 +54,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -79,9 +73,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -95,9 +87,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -111,9 +101,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -129,9 +117,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -172,6 +158,9 @@
     <t>队伍开启模式</t>
   </si>
   <si>
+    <t>开启等级</t>
+  </si>
+  <si>
     <t>貌似无用</t>
   </si>
   <si>
@@ -181,10 +170,16 @@
     <t>公会宝箱</t>
   </si>
   <si>
-    <t>世界宝箱</t>
+    <t>新年宝箱</t>
   </si>
   <si>
     <t>纳鲁恩赐宝箱</t>
+  </si>
+  <si>
+    <t>公会战胜利宝箱</t>
+  </si>
+  <si>
+    <t>公会战庆贺宝箱</t>
   </si>
   <si>
     <t>ID</t>
@@ -648,24 +643,18 @@
   <si>
     <t>Yuanbaomark</t>
   </si>
-  <si>
-    <t>公会战胜利宝箱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会战庆贺宝箱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启等级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -676,42 +665,177 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -766,8 +890,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -777,26 +1087,268 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -858,15 +1410,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -916,71 +1517,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1193,31 +1794,32 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.5" style="11"/>
-    <col min="2" max="2" width="12.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.8796296296296" style="11" customWidth="1"/>
     <col min="3" max="7" width="7.5" style="11"/>
-    <col min="8" max="9" width="11.625" style="11" customWidth="1"/>
+    <col min="8" max="9" width="11.6296296296296" style="11" customWidth="1"/>
     <col min="10" max="16384" width="7.5" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1243,21 +1845,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="2" s="10" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="14">
         <v>180225</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="14">
         <v>6290</v>
@@ -1275,12 +1877,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="3" s="10" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="16">
         <v>180354</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -1304,12 +1906,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="4" s="10" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="18">
         <v>180404</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="10">
         <v>3</v>
@@ -1333,12 +1935,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="5" s="10" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="10">
         <v>180320</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="10">
         <v>4</v>
@@ -1362,12 +1964,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="6" s="10" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="10">
         <v>300002</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="10">
         <v>5</v>
@@ -1391,12 +1993,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="7" s="10" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="10">
         <v>300003</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>167</v>
+      <c r="B7" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="10">
         <v>6</v>
@@ -1420,12 +2022,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="8" s="10" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="10">
         <v>300004</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>168</v>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="10">
         <v>7</v>
@@ -1449,47 +2051,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="10" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="11" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="12" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="13" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="14" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="15" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="16" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="17" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="18" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="19" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="20" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="21" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="22" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="23" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="24" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="25" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="26" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="27" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="28" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="29" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="30" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="31" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="32" s="10" customFormat="1" ht="15" customHeight="1"/>
-    <row r="33" s="10" customFormat="1" ht="15" customHeight="1"/>
+    <row r="9" s="10" customFormat="1" customHeight="1"/>
+    <row r="10" s="10" customFormat="1" customHeight="1"/>
+    <row r="11" s="10" customFormat="1" customHeight="1"/>
+    <row r="12" s="10" customFormat="1" customHeight="1"/>
+    <row r="13" s="10" customFormat="1" customHeight="1"/>
+    <row r="14" s="10" customFormat="1" customHeight="1"/>
+    <row r="15" s="10" customFormat="1" customHeight="1"/>
+    <row r="16" s="10" customFormat="1" customHeight="1"/>
+    <row r="17" s="10" customFormat="1" customHeight="1"/>
+    <row r="18" s="10" customFormat="1" customHeight="1"/>
+    <row r="19" s="10" customFormat="1" customHeight="1"/>
+    <row r="20" s="10" customFormat="1" customHeight="1"/>
+    <row r="21" s="10" customFormat="1" customHeight="1"/>
+    <row r="22" s="10" customFormat="1" customHeight="1"/>
+    <row r="23" s="10" customFormat="1" customHeight="1"/>
+    <row r="24" s="10" customFormat="1" customHeight="1"/>
+    <row r="25" s="10" customFormat="1" customHeight="1"/>
+    <row r="26" s="10" customFormat="1" customHeight="1"/>
+    <row r="27" s="10" customFormat="1" customHeight="1"/>
+    <row r="28" s="10" customFormat="1" customHeight="1"/>
+    <row r="29" s="10" customFormat="1" customHeight="1"/>
+    <row r="30" s="10" customFormat="1" customHeight="1"/>
+    <row r="31" s="10" customFormat="1" customHeight="1"/>
+    <row r="32" s="10" customFormat="1" customHeight="1"/>
+    <row r="33" s="10" customFormat="1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B16384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="2" customWidth="1"/>
@@ -1498,629 +2101,629 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:1">
       <c r="A79" s="9"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:1">
       <c r="A80" s="9"/>
     </row>
     <row r="81" spans="1:1">
@@ -51036,23 +51639,26 @@
       <c r="A16384" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>